--- a/I2C_test_plan.xlsx
+++ b/I2C_test_plan.xlsx
@@ -1,64 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harish G\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA48604-1357-44B0-B5B4-773BACC7E730}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6296196-771C-4872-AF16-DE47BBBE1793}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{37604697-78BC-4EBC-9736-6EECED028C1A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A761644E-67E4-495D-BD64-50CDE18F5DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+  <si>
+    <t>Sl.no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>Write the data into the slave</t>
+  </si>
+  <si>
+    <t>Specification section</t>
+  </si>
+  <si>
+    <t>Verification Criteria</t>
+  </si>
+  <si>
+    <t>3.1 of TI spec.</t>
+  </si>
+  <si>
+    <t>Read the data from the slave</t>
+  </si>
+  <si>
+    <t>3.2 of TI spec.</t>
+  </si>
+  <si>
+    <t>Slave stores the data and acknowledges to the master</t>
+  </si>
+  <si>
+    <t>Slave sends the data and waits for master next operation</t>
+  </si>
+  <si>
+    <t>3.1.9 of UM10204</t>
+  </si>
+  <si>
+    <t>Slave holds SCL low so that Master pauses it's transfer</t>
+  </si>
+  <si>
+    <t>Clock stretching by slave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeated start condition </t>
+  </si>
+  <si>
+    <t>2.1.2 of TI spec.</t>
+  </si>
+  <si>
+    <t>Master delays its transfer without losing it's control over the bus</t>
+  </si>
+  <si>
+    <t>3.1.8 of UM10204</t>
+  </si>
+  <si>
+    <t>Deisired master sends data to slave in a multi master environment</t>
+  </si>
+  <si>
+    <t>Deisired master receives data from slave in a multi master environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
   <si>
     <t>VERIFICATION OF I2C VIP</t>
   </si>
   <si>
-    <t>Test strategy</t>
-  </si>
-  <si>
-    <t>Spec section</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Verification Criteria</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>To test the address of the slave</t>
-  </si>
-  <si>
-    <t>3.1 of TI spec</t>
-  </si>
-  <si>
-    <t>Slave acknowledges the address</t>
+    <t>Multi Master write transfer</t>
+  </si>
+  <si>
+    <t>Multi Master read transfer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,14 +114,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -88,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,77 +141,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -186,20 +156,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,76 +499,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B304B5C-683B-4029-8C5A-5D75021CD86D}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB47E40D-990A-4AB7-BAD2-3739D71F4D00}">
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="G1" s="10" t="s">
+    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E2" s="11" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E8" s="5"/>
+      <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
